--- a/data/trans_dic/P16-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.6834923583486672</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6781808953422811</v>
+        <v>0.6781808953422812</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7631037150272566</v>
@@ -697,7 +697,7 @@
         <v>0.7757254356888948</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.7627664676649359</v>
+        <v>0.7627664676649358</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5788149486963332</v>
+        <v>0.576998987589924</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6895375882404876</v>
+        <v>0.6891689669549189</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6499015257362029</v>
+        <v>0.6472326831363148</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6388312733938555</v>
+        <v>0.6366346564138348</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7426580283266524</v>
+        <v>0.7384247009475841</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8266248771146727</v>
+        <v>0.8293148812401914</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8205930991026101</v>
+        <v>0.822289485901723</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8004034127949728</v>
+        <v>0.7992187037430862</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6757594660768265</v>
+        <v>0.6751942831954061</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7764404090842276</v>
+        <v>0.7778094551471104</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7553740134951343</v>
+        <v>0.7556515255683292</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7394767889274262</v>
+        <v>0.7420165260604562</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6386530130292821</v>
+        <v>0.6386706120337742</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7455310746738362</v>
+        <v>0.7488766052140934</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7188959221997574</v>
+        <v>0.7164515668251913</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7164589358210768</v>
+        <v>0.7164060245772659</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.786221934618426</v>
+        <v>0.7852131650185497</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8696117204308892</v>
+        <v>0.8699088982509088</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8672762610697864</v>
+        <v>0.8691929179936835</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8446097047040901</v>
+        <v>0.8421103941780144</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7145488341163262</v>
+        <v>0.7125047047533087</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8114072983123939</v>
+        <v>0.8098360351744703</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.794898941682905</v>
+        <v>0.7945760851649563</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.783946200312042</v>
+        <v>0.7866865986370531</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.441749936475795</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4810686814177172</v>
+        <v>0.4810686814177171</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4622414767659869</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2828202892192881</v>
+        <v>0.2821214959856251</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3976403134952457</v>
+        <v>0.3972144274581887</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4214930217030878</v>
+        <v>0.4208555378423887</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4587289602052372</v>
+        <v>0.459689861426131</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4384394010062436</v>
+        <v>0.4354685933373786</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5969275792435368</v>
+        <v>0.5940883965454519</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5539564799651119</v>
+        <v>0.5532291769959985</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5580526193023225</v>
+        <v>0.5605137567202984</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.365102366464217</v>
+        <v>0.3632448068287564</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4987956368261414</v>
+        <v>0.4986260403869457</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4909345294026836</v>
+        <v>0.4919235991926331</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.512240832198992</v>
+        <v>0.5131765972255935</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3281857908610754</v>
+        <v>0.3263951165488175</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4431831697325046</v>
+        <v>0.4425152151303757</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4642936738538987</v>
+        <v>0.4625933483549319</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5066624180205846</v>
+        <v>0.5068872994857107</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4870652375673175</v>
+        <v>0.4851509365605725</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6427740620357797</v>
+        <v>0.6424221056534539</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5995111609970395</v>
+        <v>0.5968539192819678</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6006322769106633</v>
+        <v>0.5990432997472305</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3975008103047583</v>
+        <v>0.3956709834150156</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5324974843673738</v>
+        <v>0.5321566185978113</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5225821290106722</v>
+        <v>0.5233233030356109</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.544577026648042</v>
+        <v>0.5460982455550244</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.499987612530599</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5546972218523598</v>
+        <v>0.5546972218523596</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2969937214881981</v>
+        <v>0.2879359973422838</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3585003068393019</v>
+        <v>0.3606104127198024</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4080201433930868</v>
+        <v>0.4083543444719092</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4871958360705977</v>
+        <v>0.4842292335783164</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.460377354280898</v>
+        <v>0.462403255132468</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5426422003225833</v>
+        <v>0.5364400776255339</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5102712031546622</v>
+        <v>0.5096328543991157</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5483922243950059</v>
+        <v>0.5473274921992406</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3860495475493244</v>
+        <v>0.3827178672954833</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4595915573578695</v>
+        <v>0.4605200352698153</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4666610926929612</v>
+        <v>0.470920898496942</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5275063932016971</v>
+        <v>0.5305976964093204</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3758995002685126</v>
+        <v>0.3757715929751624</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4581336699444742</v>
+        <v>0.4545260705751696</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4971751904024193</v>
+        <v>0.4955400669096939</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.568311771981025</v>
+        <v>0.5639162583100701</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5530045770961663</v>
+        <v>0.5535994548509134</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6396137870963207</v>
+        <v>0.6360211098606152</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5899695949682219</v>
+        <v>0.5951675262748709</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6102411836412905</v>
+        <v>0.6132833606379685</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4519656543326072</v>
+        <v>0.4468847428096614</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5292957176910184</v>
+        <v>0.5311238713100199</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5306732222703041</v>
+        <v>0.5323702066517713</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5817910999862229</v>
+        <v>0.5823459287626797</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.6483994551546994</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6333222723603128</v>
+        <v>0.6333222723603127</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.4969911716007554</v>
@@ -1105,7 +1105,7 @@
         <v>0.5743691034470861</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5796937787829533</v>
+        <v>0.5796937787829534</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3892629640014501</v>
+        <v>0.3883285284746935</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.487719049159259</v>
+        <v>0.4861276439121738</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4796792808486706</v>
+        <v>0.4789608790030627</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5028391219937089</v>
+        <v>0.5030525088717001</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5682701241541868</v>
+        <v>0.5705344806960155</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6866058549926995</v>
+        <v>0.6849398980696736</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6323362435672332</v>
+        <v>0.6329440188792322</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6164589117705892</v>
+        <v>0.6184999376573842</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4852638120019713</v>
+        <v>0.4858732256264137</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5924727366997995</v>
+        <v>0.5930301178837443</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5621976688094513</v>
+        <v>0.5631563212753318</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.566727744336709</v>
+        <v>0.5666472511019505</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4235719234481347</v>
+        <v>0.4231097182316391</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5230357019306969</v>
+        <v>0.5214222848737299</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5140520216982299</v>
+        <v>0.51461664834529</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.54133705508549</v>
+        <v>0.5417583254494652</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6018605811283437</v>
+        <v>0.6037934919219309</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7177603310576329</v>
+        <v>0.7169863346559447</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6661471075568201</v>
+        <v>0.665184370424749</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6469224976160231</v>
+        <v>0.6491825626357639</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5095629345803319</v>
+        <v>0.5108830364390604</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6172198861021504</v>
+        <v>0.6169044004041119</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5858592350709607</v>
+        <v>0.586422491222914</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5914889423226258</v>
+        <v>0.5922562692481309</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>597177</v>
+        <v>595303</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>672053</v>
+        <v>671694</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>490251</v>
+        <v>488238</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>369582</v>
+        <v>368312</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>976679</v>
+        <v>971112</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1105001</v>
+        <v>1108597</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>816211</v>
+        <v>817898</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>656901</v>
+        <v>655928</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1585896</v>
+        <v>1584570</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1794668</v>
+        <v>1797833</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1321154</v>
+        <v>1321640</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1034706</v>
+        <v>1038260</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>658913</v>
+        <v>658931</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>726627</v>
+        <v>729887</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>542297</v>
+        <v>540453</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>414492</v>
+        <v>414462</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1033971</v>
+        <v>1032644</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1162464</v>
+        <v>1162861</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>862645</v>
+        <v>864551</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>693181</v>
+        <v>691130</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1676928</v>
+        <v>1672131</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1875491</v>
+        <v>1871859</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1390284</v>
+        <v>1389719</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1096930</v>
+        <v>1100764</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>478643</v>
+        <v>477461</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>779384</v>
+        <v>778549</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>875182</v>
+        <v>873858</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1023225</v>
+        <v>1025369</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>696098</v>
+        <v>691382</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1048749</v>
+        <v>1043761</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1101432</v>
+        <v>1099986</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1211369</v>
+        <v>1216711</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1197560</v>
+        <v>1191467</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1853990</v>
+        <v>1853360</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1995494</v>
+        <v>1999514</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2254512</v>
+        <v>2258631</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>555420</v>
+        <v>552389</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>868649</v>
+        <v>867340</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>964052</v>
+        <v>960522</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1130144</v>
+        <v>1130646</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>773300</v>
+        <v>770261</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1129297</v>
+        <v>1128679</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1192008</v>
+        <v>1186725</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1303797</v>
+        <v>1300347</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1303829</v>
+        <v>1297827</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1979258</v>
+        <v>1977991</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>2124132</v>
+        <v>2127144</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>2396833</v>
+        <v>2403528</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>163765</v>
+        <v>158770</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>172199</v>
+        <v>173213</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>223141</v>
+        <v>223323</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>346682</v>
+        <v>344571</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>219329</v>
+        <v>220294</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>248342</v>
+        <v>245504</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>280210</v>
+        <v>279860</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>403001</v>
+        <v>402218</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>396789</v>
+        <v>393365</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>431090</v>
+        <v>431961</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>511473</v>
+        <v>516142</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>763019</v>
+        <v>767490</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>207274</v>
+        <v>207203</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>220056</v>
+        <v>218323</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>271898</v>
+        <v>271004</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>404403</v>
+        <v>401275</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>263458</v>
+        <v>263741</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>292722</v>
+        <v>291078</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>323976</v>
+        <v>326830</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>448452</v>
+        <v>450688</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>464539</v>
+        <v>459317</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>496472</v>
+        <v>498187</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>581632</v>
+        <v>583492</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>841540</v>
+        <v>842342</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1275041</v>
+        <v>1271980</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1665559</v>
+        <v>1660124</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1620173</v>
+        <v>1617747</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1770337</v>
+        <v>1771088</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1920297</v>
+        <v>1927948</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2438363</v>
+        <v>2432447</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2233475</v>
+        <v>2235622</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2297109</v>
+        <v>2304714</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3229296</v>
+        <v>3233351</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4127358</v>
+        <v>4131241</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3884627</v>
+        <v>3891251</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4107064</v>
+        <v>4106481</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1387420</v>
+        <v>1385906</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1786165</v>
+        <v>1780656</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1736271</v>
+        <v>1738178</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1905876</v>
+        <v>1907359</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2033805</v>
+        <v>2040337</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2549003</v>
+        <v>2546254</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>2352898</v>
+        <v>2349498</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2410625</v>
+        <v>2419047</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>3391000</v>
+        <v>3399785</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>4299755</v>
+        <v>4297557</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>4048122</v>
+        <v>4052014</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>4286508</v>
+        <v>4292069</v>
       </c>
     </row>
     <row r="20">
